--- a/3-power-apps/power-apps-challenge/power-apps-challenge.xlsx
+++ b/3-power-apps/power-apps-challenge/power-apps-challenge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\linkedin-learning\power-platform-for-excel-placeholder\files\3-build-custom-apps-with-power-apps\power-apps-challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57d2ab2a84d54c81/Documents/GitHub/gxls-power-platform/3-power-apps/power-apps-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AE700D-647D-4501-B910-E6CA02E608F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D3AE700D-647D-4501-B910-E6CA02E608F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78FD69F6-A3DF-4A6B-B6CB-2C21127F481A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="16826" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,60 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="4">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="4">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-    <bk>
-      <rc t="1" v="3"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Property ID</t>
   </si>
@@ -91,9 +39,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Image of issue</t>
-  </si>
-  <si>
     <t>P001</t>
   </si>
   <si>
@@ -115,16 +60,31 @@
     <t>P003</t>
   </si>
   <si>
-    <t>Heating not working</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
     <t>P004</t>
   </si>
   <si>
-    <t>Clogged drain</t>
+    <t>LinkToImage</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/stringfestdata/images-for-web-embeds/refs/heads/main/power-apps/Leaky%20faucet.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/stringfestdata/images-for-web-embeds/refs/heads/main/power-apps/Broken%20glass.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/stringfestdata/images-for-web-embeds/refs/heads/main/power-apps/Home%20water%20damage.jpeg</t>
+  </si>
+  <si>
+    <t>Home water damage</t>
+  </si>
+  <si>
+    <t>Burst pipe</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/stringfestdata/images-for-web-embeds/refs/heads/main/power-apps/Burst%20pipe.jpeg</t>
   </si>
 </sst>
 </file>
@@ -185,83 +145,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>3</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-  <rel r:id="rId4"/>
-</richValueRels>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -272,7 +157,7 @@
     <tableColumn id="2" xr3:uid="{F8DABAC4-7AD7-4CA1-A284-286C9E0846F9}" name="Description of issue"/>
     <tableColumn id="3" xr3:uid="{4B3F3E4E-27F9-4E22-BABA-49870B619933}" name="Date reported"/>
     <tableColumn id="4" xr3:uid="{E8864757-D816-4E54-B626-6D5CD61F85F3}" name="Status"/>
-    <tableColumn id="5" xr3:uid="{C41BDAFA-328D-4180-B731-9DEF69BFBCE3}" name="Image of issue"/>
+    <tableColumn id="5" xr3:uid="{C41BDAFA-328D-4180-B731-9DEF69BFBCE3}" name="LinkToImage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,18 +429,18 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.06640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.87890625" customWidth="1"/>
+    <col min="2" max="2" width="18.5859375" customWidth="1"/>
+    <col min="3" max="3" width="14.05859375" customWidth="1"/>
+    <col min="5" max="5" width="14.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,75 +454,75 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>44936</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>44938</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>44941</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="e" vm="3">
-        <v>#VALUE!</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>44944</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="e" vm="4">
-        <v>#VALUE!</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
